--- a/DJF/TEST_DEFINITION.xlsx
+++ b/DJF/TEST_DEFINITION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/394fa06310416d1d/Escritorio/PROYECTO FINAL OBDH/GET2DJF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\botea\OneDrive\Escritorio\OBDH_FINAL\DJF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6F23EB-A69F-4833-9DD8-7DD828F4BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66701B0F-97F8-44EE-B17A-581AB3B77934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{195AB958-2EAB-462B-B744-A60DD78AE71D}"/>
   </bookViews>
@@ -121,9 +121,6 @@
 VCx=0.8, VCy=0.8</t>
   </si>
   <si>
-    <t>TC(3,25)</t>
-  </si>
-  <si>
     <t>SID=10
 Values of PID 5,6,7 and 8</t>
   </si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>TC(128,1)</t>
+  </si>
+  <si>
+    <t>TM(3,25)</t>
   </si>
 </sst>
 </file>
@@ -557,12 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +572,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A45C0-305E-4151-A013-7AFFAD0939CF}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -1005,7 +1005,7 @@
     </row>
     <row r="9" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="22"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
@@ -1042,10 +1042,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="15" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="30" t="s">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="22"/>
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
+      <c r="B19" s="41"/>
       <c r="D19" s="30" t="s">
         <v>13</v>
       </c>
@@ -1125,15 +1125,15 @@
         <v>20</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>15</v>
@@ -1155,14 +1155,14 @@
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
-        <v>44</v>
+      <c r="B23" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="22"/>
@@ -1195,11 +1195,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
+      <c r="B27" s="41"/>
       <c r="D27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1208,18 +1208,18 @@
         <v>20</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="28"/>
     </row>
@@ -1238,14 +1238,14 @@
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
-        <v>45</v>
+      <c r="B31" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="22"/>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
+      <c r="B35" s="41"/>
       <c r="D35" s="30" t="s">
         <v>13</v>
       </c>
@@ -1291,18 +1291,18 @@
         <v>20</v>
       </c>
       <c r="D36" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="28"/>
     </row>
@@ -1321,14 +1321,14 @@
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
-      <c r="B39" s="37" t="s">
-        <v>46</v>
+      <c r="B39" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="22"/>
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
+      <c r="B43" s="41"/>
       <c r="D43" s="30" t="s">
         <v>13</v>
       </c>
@@ -1374,18 +1374,18 @@
         <v>20</v>
       </c>
       <c r="D44" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="28"/>
     </row>
@@ -1405,13 +1405,13 @@
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="22"/>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="35"/>
+      <c r="B51" s="41"/>
       <c r="D51" s="30" t="s">
         <v>13</v>
       </c>
@@ -1457,18 +1457,18 @@
         <v>20</v>
       </c>
       <c r="D52" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="28"/>
     </row>
@@ -1487,14 +1487,14 @@
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="37" t="s">
-        <v>48</v>
+      <c r="B55" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="22"/>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
+      <c r="B59" s="41"/>
       <c r="D59" s="30" t="s">
         <v>13</v>
       </c>
@@ -1540,18 +1540,18 @@
         <v>20</v>
       </c>
       <c r="D60" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" s="28"/>
     </row>
@@ -1571,13 +1571,13 @@
     <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="22"/>
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
+      <c r="B67" s="41"/>
       <c r="D67" s="30" t="s">
         <v>13</v>
       </c>
@@ -1623,18 +1623,18 @@
         <v>20</v>
       </c>
       <c r="D68" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" s="28"/>
     </row>
@@ -1654,10 +1654,10 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>12</v>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="22"/>
@@ -1693,12 +1693,12 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="35"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="39" t="s">
         <v>12</v>
       </c>
     </row>
